--- a/data/dat.xlsx
+++ b/data/dat.xlsx
@@ -448,19 +448,19 @@
         <v>5044.0</v>
       </c>
       <c r="I3" s="2">
-        <v>163.0</v>
+        <v>183.0</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="2"/>
-        <v>30.94478528</v>
+        <v>27.56284153</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" si="3"/>
-        <v>30.12158086</v>
+        <v>26.73963711</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" si="4"/>
-        <v>3.405241887</v>
+        <v>3.286147001</v>
       </c>
     </row>
     <row r="4">
@@ -854,22 +854,22 @@
         <v>1.030434783</v>
       </c>
       <c r="H3" s="2">
-        <v>615.0</v>
+        <v>831.0</v>
       </c>
       <c r="I3" s="2">
-        <v>230.0</v>
+        <v>218.0</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="2"/>
-        <v>2.673913043</v>
+        <v>3.811926606</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" si="3"/>
-        <v>1.643478261</v>
+        <v>2.781491823</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" si="4"/>
-        <v>0.4968148867</v>
+        <v>1.022987411</v>
       </c>
     </row>
     <row r="4">
@@ -900,19 +900,19 @@
         <v>253.0</v>
       </c>
       <c r="I4" s="2">
-        <v>60.0</v>
+        <v>143.0</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="2"/>
-        <v>4.216666667</v>
+        <v>1.769230769</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="3"/>
-        <v>3.099275362</v>
+        <v>0.6518394649</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" si="4"/>
-        <v>1.13116833</v>
+        <v>-0.4279569669</v>
       </c>
     </row>
     <row r="5">
@@ -1263,22 +1263,22 @@
         <v>1.441696113</v>
       </c>
       <c r="H3" s="2">
-        <v>331.0</v>
+        <v>363.0</v>
       </c>
       <c r="I3" s="2">
         <v>229.0</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="2"/>
-        <v>1.445414847</v>
+        <v>1.585152838</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" si="3"/>
-        <v>0.003718734087</v>
+        <v>0.1434567254</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" si="4"/>
-        <v>-5.594371968</v>
+        <v>-1.941721855</v>
       </c>
     </row>
     <row r="4">
@@ -1392,22 +1392,22 @@
         <v>1.816425121</v>
       </c>
       <c r="H6" s="2">
-        <v>945.0</v>
+        <v>963.0</v>
       </c>
       <c r="I6" s="2">
         <v>154.0</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="2"/>
-        <v>6.136363636</v>
+        <v>6.253246753</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="3"/>
-        <v>4.319938516</v>
+        <v>4.436821632</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="4"/>
-        <v>1.46324117</v>
+        <v>1.489938272</v>
       </c>
     </row>
     <row r="7">
